--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TutoriaSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkey\Desktop\Septiembre_Diciembre\Septiembre_Diciembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3A" sheetId="7" r:id="rId1"/>
     <sheet name="4C" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>UNIVERSIDAD TECNOLÓGICA DE AGUASCALIENTES                                  COORDINACIÓN DE TUTORÍAS</t>
   </si>
@@ -465,6 +466,9 @@
       </rPr>
       <t>__</t>
     </r>
+  </si>
+  <si>
+    <t>Listado de prueba</t>
   </si>
 </sst>
 </file>
@@ -990,36 +994,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,6 +1023,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1090,7 +1094,7 @@
         <xdr:cNvPr id="2" name="9 Imagen" descr="logO UTA.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,7 +1173,7 @@
         <xdr:cNvPr id="2" name="9 Imagen" descr="logO UTA.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,18 +1538,18 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="19"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1559,11 +1563,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1580,10 +1584,10 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="70"/>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1600,19 +1604,19 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="34"/>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="70"/>
+      <c r="E8" s="60"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="70"/>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1622,35 +1626,35 @@
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="69" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="60"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="60"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
@@ -1976,16 +1980,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="C1:E2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2004,7 +2008,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2020,18 +2024,18 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="19"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2045,11 +2049,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -2066,10 +2070,10 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="70"/>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -2086,19 +2090,19 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="70"/>
+      <c r="E8" s="60"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="70"/>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -2108,35 +2112,35 @@
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="69" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="60"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="60"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
@@ -2434,16 +2438,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="C1:E2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2454,4 +2458,24 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>